--- a/進捗管理/WBS.xlsx
+++ b/進捗管理/WBS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE468710-2A5E-44CC-A3D0-969B7CA70B6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205596ED-50F2-482E-874C-E8820884CD74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33810" yWindow="1125" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -494,6 +494,58 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中、嶋田</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no  item_id  item_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高木</t>
+    <rPh sb="0" eb="2">
+      <t>タカキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中、嶋田、高木</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シマダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タカキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検討</t>
+    <rPh sb="0" eb="2">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テンプレートほしい（周）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -545,7 +597,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +607,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +825,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,6 +836,132 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -791,140 +978,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1211,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AM36"/>
+  <dimension ref="B1:AP36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13:AA13"/>
+      <selection activeCell="V7" sqref="V7:X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1241,103 +1335,103 @@
     <col min="40" max="16384" width="3.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="2:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="47" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="25" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="35">
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="20">
         <v>44258</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="25" t="s">
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="11" t="s">
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="13"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="56"/>
     </row>
-    <row r="2" spans="2:39" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="25" t="s">
+    <row r="2" spans="2:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="25" t="s">
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="13"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="56"/>
     </row>
-    <row r="3" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1356,1294 +1450,1376 @@
       <c r="Q3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
+      <c r="AP3" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
+    <row r="4" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="39"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="34"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38" t="s">
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38" t="s">
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="44" t="s">
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="30" t="s">
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="14" t="s">
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="16"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="46"/>
     </row>
-    <row r="5" spans="2:39" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="55"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="42"/>
+    <row r="5" spans="2:42" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="43"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38" t="s">
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38" t="s">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38" t="s">
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38" t="s">
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="31" t="s">
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="31" t="s">
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="19"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="47"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="47"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="48"/>
+      <c r="AP5" s="1"/>
     </row>
-    <row r="6" spans="2:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="56"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="43"/>
+    <row r="6" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="44"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="22"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
+      <c r="AM6" s="50"/>
     </row>
-    <row r="7" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="53" t="s">
+      <c r="M7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="57">
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="12">
         <v>44258</v>
       </c>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="57">
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="12">
         <v>44260</v>
       </c>
-      <c r="T7" s="58"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="8" t="s">
+      <c r="T7" s="13"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="15"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="11"/>
     </row>
-    <row r="8" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="M8" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="57">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="12">
         <v>44258</v>
       </c>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="57">
+      <c r="Q8" s="13"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="12">
         <v>44260</v>
       </c>
-      <c r="T8" s="58"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="8" t="s">
+      <c r="T8" s="13"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="11"/>
     </row>
-    <row r="9" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="8"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="10"/>
+      <c r="M9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="12">
+        <v>44258</v>
+      </c>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="12">
+        <v>44258</v>
+      </c>
+      <c r="T9" s="13"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="11"/>
     </row>
-    <row r="10" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="10"/>
+      <c r="M10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="12">
+        <v>44258</v>
+      </c>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="12">
+        <v>44260</v>
+      </c>
+      <c r="T10" s="13"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="11"/>
     </row>
-    <row r="11" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="10"/>
+      <c r="M11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="12">
+        <v>44258</v>
+      </c>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="12">
+        <v>44260</v>
+      </c>
+      <c r="T11" s="13"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="11"/>
     </row>
-    <row r="12" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="9"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="10"/>
+      <c r="M12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="12">
+        <v>44258</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="12">
+        <v>44260</v>
+      </c>
+      <c r="T12" s="13"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="15"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="11"/>
     </row>
-    <row r="13" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="57">
+      <c r="M13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="12">
         <v>44271</v>
       </c>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="57">
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="12">
         <v>44271</v>
       </c>
-      <c r="T13" s="58"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="10"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="12">
+        <v>44258</v>
+      </c>
+      <c r="W13" s="13"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="12">
+        <v>44258</v>
+      </c>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="11"/>
     </row>
-    <row r="14" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="57">
+      <c r="M14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="12">
         <v>44271</v>
       </c>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="57">
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="12">
         <v>44271</v>
       </c>
-      <c r="T14" s="58"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="9"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="10"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="12">
+        <v>44258</v>
+      </c>
+      <c r="W14" s="13"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="12">
+        <v>44258</v>
+      </c>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="11"/>
     </row>
-    <row r="15" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="57">
+      <c r="M15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="12">
         <v>44271</v>
       </c>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="57">
+      <c r="Q15" s="13"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="12">
         <v>44271</v>
       </c>
-      <c r="T15" s="58"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="9"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="10"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="12">
+        <v>44258</v>
+      </c>
+      <c r="W15" s="13"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="12">
+        <v>44258</v>
+      </c>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="11"/>
     </row>
-    <row r="16" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="57">
+      <c r="M16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="12">
         <v>44271</v>
       </c>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="57">
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="12">
         <v>44273</v>
       </c>
-      <c r="T16" s="58"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="10"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="11"/>
     </row>
     <row r="17" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="57">
+      <c r="M17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="12">
         <v>44271</v>
       </c>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="57">
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="12">
         <v>44273</v>
       </c>
-      <c r="T17" s="58"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="57"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="8" t="s">
+      <c r="T17" s="13"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="12">
+        <v>44258</v>
+      </c>
+      <c r="W17" s="13"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="9"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="11"/>
     </row>
     <row r="18" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
+      <c r="B18" s="61">
         <v>12</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="4" t="s">
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="57">
+      <c r="M18" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="66">
         <v>44271</v>
       </c>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="57">
+      <c r="Q18" s="67"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="66">
         <v>44271</v>
       </c>
-      <c r="T18" s="58"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="9"/>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="10"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="69"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="70"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="64"/>
     </row>
     <row r="19" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4">
+      <c r="B19" s="61">
         <v>13</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4" t="s">
+      <c r="C19" s="62"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="57">
+      <c r="M19" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="66">
         <v>44272</v>
       </c>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="57">
+      <c r="Q19" s="67"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="66">
         <v>44274</v>
       </c>
-      <c r="T19" s="58"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="57"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="28"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="8"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="9"/>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="10"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="67"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="69"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="64"/>
     </row>
     <row r="20" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="57">
+      <c r="M20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="12">
         <v>44277</v>
       </c>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="57">
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="12">
         <v>44277</v>
       </c>
-      <c r="T20" s="58"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="8" t="s">
+      <c r="T20" s="13"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="11"/>
     </row>
     <row r="21" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>15</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="57">
+      <c r="M21" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="12">
         <v>44277</v>
       </c>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="57">
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="12">
         <v>44279</v>
       </c>
-      <c r="T21" s="58"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="8" t="s">
+      <c r="T21" s="13"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="18"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="11"/>
     </row>
     <row r="22" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>16</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="57">
+      <c r="M22" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="12">
         <v>44277</v>
       </c>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="57">
+      <c r="Q22" s="13"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="12">
         <v>44279</v>
       </c>
-      <c r="T22" s="58"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="58"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="8" t="s">
+      <c r="T22" s="13"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="11"/>
     </row>
     <row r="23" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>17</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="57">
+      <c r="M23" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="12">
         <v>44278</v>
       </c>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="57">
+      <c r="Q23" s="13"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="12">
         <v>44280</v>
       </c>
-      <c r="T23" s="58"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="58"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="58"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="10"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="11"/>
     </row>
     <row r="24" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>18</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
       <c r="K24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="57">
+      <c r="M24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="12">
         <v>44274</v>
       </c>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="57">
+      <c r="Q24" s="13"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="12">
         <v>44275</v>
       </c>
-      <c r="T24" s="58"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="58"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="58"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="9"/>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="10"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="11"/>
     </row>
     <row r="25" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>19</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="57">
+      <c r="M25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="12">
         <v>44278</v>
       </c>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="57">
+      <c r="Q25" s="13"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="12">
         <v>44281</v>
       </c>
-      <c r="T25" s="58"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="8" t="s">
+      <c r="T25" s="13"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="9"/>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="11"/>
     </row>
     <row r="26" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>20</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
       <c r="K26" s="4" t="s">
         <v>53</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="57">
+      <c r="M26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="12">
         <v>44281</v>
       </c>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="57">
+      <c r="Q26" s="13"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="12">
         <v>44281</v>
       </c>
-      <c r="T26" s="58"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="23"/>
-      <c r="AG26" s="24"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="9"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="10"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="11"/>
     </row>
     <row r="27" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>21</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="60" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L27" s="60" t="s">
+      <c r="L27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="57">
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="12">
         <v>44281</v>
       </c>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="57">
+      <c r="Q27" s="13"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="12">
         <v>44302</v>
       </c>
-      <c r="T27" s="58"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="23"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="9"/>
-      <c r="AL27" s="9"/>
-      <c r="AM27" s="10"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="11"/>
     </row>
     <row r="28" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>22</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="9"/>
-      <c r="AL28" s="9"/>
-      <c r="AM28" s="10"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="11"/>
     </row>
     <row r="29" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="57"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="23"/>
-      <c r="AG29" s="24"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="9"/>
-      <c r="AL29" s="9"/>
-      <c r="AM29" s="10"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="11"/>
     </row>
     <row r="30" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2654,78 +2830,165 @@
     <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AE1:AM1"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="AH4:AM6"/>
+    <mergeCell ref="AH7:AM7"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AH25:AM25"/>
+    <mergeCell ref="AH26:AM26"/>
+    <mergeCell ref="AH27:AM27"/>
+    <mergeCell ref="AH28:AM28"/>
+    <mergeCell ref="AH29:AM29"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="AH17:AM17"/>
+    <mergeCell ref="AH18:AM18"/>
+    <mergeCell ref="AH19:AM19"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AF4:AG6"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AB5:AC6"/>
+    <mergeCell ref="AD5:AE6"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="T2:Z2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P5:R6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="M4:O6"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
     <mergeCell ref="V17:X17"/>
     <mergeCell ref="Y17:AA17"/>
     <mergeCell ref="V18:X18"/>
@@ -2750,166 +3013,79 @@
     <mergeCell ref="S18:U18"/>
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AH13:AM13"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="T2:Z2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="P5:R6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="M4:O6"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
     <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AF4:AG6"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AB5:AC6"/>
-    <mergeCell ref="AD5:AE6"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AE1:AM1"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="AH4:AM6"/>
-    <mergeCell ref="AH7:AM7"/>
-    <mergeCell ref="AH8:AM8"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AH24:AM24"/>
-    <mergeCell ref="AH25:AM25"/>
-    <mergeCell ref="AH26:AM26"/>
-    <mergeCell ref="AH27:AM27"/>
-    <mergeCell ref="AH28:AM28"/>
-    <mergeCell ref="AH29:AM29"/>
-    <mergeCell ref="AH15:AM15"/>
-    <mergeCell ref="AH16:AM16"/>
-    <mergeCell ref="AH17:AM17"/>
-    <mergeCell ref="AH18:AM18"/>
-    <mergeCell ref="AH19:AM19"/>
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/進捗管理/WBS.xlsx
+++ b/進捗管理/WBS.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205596ED-50F2-482E-874C-E8820884CD74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F66E14-975F-4149-8CB6-66AAFEB80C3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33810" yWindow="1125" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="380" windowWidth="14300" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -545,7 +554,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テンプレートほしい（周）</t>
+    <t>テンプレートないですが一応やりました。周さん確認お願いします。</t>
+    <rPh sb="11" eb="13">
+      <t>イチオウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ネガ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -828,6 +849,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,23 +861,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -861,6 +903,57 @@
     <xf numFmtId="180" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -900,18 +993,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,89 +1017,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1307,129 +1328,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AP36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7:X7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="1"/>
+    <col min="1" max="1" width="3.25" style="1"/>
     <col min="2" max="2" width="6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.08984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="3.26953125" style="1"/>
-    <col min="6" max="6" width="1.90625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.36328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="2.7265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.36328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="33" width="3.26953125" style="1"/>
-    <col min="34" max="34" width="4.26953125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="3.81640625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="3.26953125" style="1"/>
-    <col min="37" max="37" width="2.7265625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="3.26953125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="2.7265625" style="1" customWidth="1"/>
-    <col min="40" max="16384" width="3.26953125" style="1"/>
+    <col min="3" max="3" width="2.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.25" style="1"/>
+    <col min="6" max="6" width="1.9140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.25" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="2.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="33" width="3.25" style="1"/>
+    <col min="34" max="34" width="4.25" style="1" customWidth="1"/>
+    <col min="35" max="35" width="3.83203125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="3.25" style="1"/>
+    <col min="37" max="37" width="2.75" style="1" customWidth="1"/>
+    <col min="38" max="38" width="3.25" style="1" customWidth="1"/>
+    <col min="39" max="39" width="2.75" style="1" customWidth="1"/>
+    <col min="40" max="16384" width="3.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="23" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="20">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="44">
         <v>44258</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="23" t="s">
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="54" t="s">
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="56"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="15"/>
     </row>
     <row r="2" spans="2:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="23" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="23" t="s">
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="56"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="15"/>
     </row>
     <row r="3" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
@@ -1455,1371 +1476,1381 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="34"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26" t="s">
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26" t="s">
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="51" t="s">
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="45" t="s">
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="57" t="s">
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="46"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="18"/>
     </row>
     <row r="5" spans="2:42" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="43"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26" t="s">
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26" t="s">
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="33" t="s">
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="33" t="s">
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="48"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="21"/>
       <c r="AP5" s="1"/>
     </row>
     <row r="6" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="36"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="50"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="24"/>
     </row>
     <row r="7" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="12">
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="65">
         <v>44258</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="12">
+      <c r="Q7" s="66"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="65">
         <v>44260</v>
       </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="9" t="s">
+      <c r="T7" s="66"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="12"/>
     </row>
     <row r="8" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="12">
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="65">
         <v>44258</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="12">
+      <c r="Q8" s="66"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="65">
         <v>44260</v>
       </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="9" t="s">
+      <c r="T8" s="66"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="12"/>
     </row>
     <row r="9" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="12">
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="65">
         <v>44258</v>
       </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="12">
+      <c r="Q9" s="66"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="65">
         <v>44258</v>
       </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="18">
+      <c r="T9" s="66"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="65">
+        <v>44258</v>
+      </c>
+      <c r="W9" s="66"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="65">
+        <v>44258</v>
+      </c>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="25">
         <v>1</v>
       </c>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="11"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="12"/>
     </row>
     <row r="10" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
       <c r="K10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="12">
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="65">
         <v>44258</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="12">
+      <c r="Q10" s="66"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="65">
         <v>44260</v>
       </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="9" t="s">
+      <c r="T10" s="66"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="65">
+        <v>44258</v>
+      </c>
+      <c r="W10" s="66"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="65">
+        <v>44258</v>
+      </c>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="12"/>
     </row>
     <row r="11" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="12">
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="65">
         <v>44258</v>
       </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="12">
+      <c r="Q11" s="66"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="65">
         <v>44260</v>
       </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="11"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="12"/>
     </row>
     <row r="12" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="12">
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="65">
         <v>44258</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="12">
+      <c r="Q12" s="66"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="65">
         <v>44260</v>
       </c>
-      <c r="T12" s="13"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="11"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="12"/>
     </row>
     <row r="13" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="12">
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="65">
         <v>44271</v>
       </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="12">
+      <c r="Q13" s="66"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="65">
         <v>44271</v>
       </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="12">
+      <c r="T13" s="66"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="65">
         <v>44258</v>
       </c>
-      <c r="W13" s="13"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="12">
+      <c r="W13" s="66"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="65">
         <v>44258</v>
       </c>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="18">
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="25">
         <v>1</v>
       </c>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="11"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="12"/>
     </row>
     <row r="14" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="12">
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="65">
         <v>44271</v>
       </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="12">
+      <c r="Q14" s="66"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="65">
         <v>44271</v>
       </c>
-      <c r="T14" s="13"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="12">
+      <c r="T14" s="66"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="65">
         <v>44258</v>
       </c>
-      <c r="W14" s="13"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="12">
+      <c r="W14" s="66"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="65">
         <v>44258</v>
       </c>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="18">
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="25">
         <v>1</v>
       </c>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="11"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="12"/>
     </row>
     <row r="15" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="12">
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="65">
         <v>44271</v>
       </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="12">
+      <c r="Q15" s="66"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="65">
         <v>44271</v>
       </c>
-      <c r="T15" s="13"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="12">
+      <c r="T15" s="66"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="65">
         <v>44258</v>
       </c>
-      <c r="W15" s="13"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="12">
+      <c r="W15" s="66"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="65">
         <v>44258</v>
       </c>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="18">
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="25">
         <v>1</v>
       </c>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="11"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="12"/>
     </row>
     <row r="16" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="12">
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="65">
         <v>44271</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="12">
+      <c r="Q16" s="66"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="65">
         <v>44273</v>
       </c>
-      <c r="T16" s="13"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="11"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="12"/>
     </row>
     <row r="17" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="12">
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="65">
         <v>44271</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="12">
+      <c r="Q17" s="66"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="65">
         <v>44273</v>
       </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="12">
+      <c r="T17" s="66"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="65">
         <v>44258</v>
       </c>
-      <c r="W17" s="13"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="18">
+      <c r="W17" s="66"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="25">
         <v>0.3</v>
       </c>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="9" t="s">
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="12"/>
     </row>
     <row r="18" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="61">
+      <c r="B18" s="9">
         <v>12</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="61" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="61" t="s">
+      <c r="L18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M18" s="65" t="s">
+      <c r="M18" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="66">
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="69">
         <v>44271</v>
       </c>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="66">
+      <c r="Q18" s="70"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="69">
         <v>44271</v>
       </c>
-      <c r="T18" s="67"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="70"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
-      <c r="AM18" s="64"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="31"/>
     </row>
     <row r="19" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="61">
+      <c r="B19" s="9">
         <v>13</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="65" t="s">
+      <c r="M19" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="66">
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="69">
         <v>44272</v>
       </c>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="66">
+      <c r="Q19" s="70"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="69">
         <v>44274</v>
       </c>
-      <c r="T19" s="67"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="70"/>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="63"/>
-      <c r="AK19" s="63"/>
-      <c r="AL19" s="63"/>
-      <c r="AM19" s="64"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="31"/>
     </row>
     <row r="20" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="M20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="12">
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="65">
         <v>44277</v>
       </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="12">
+      <c r="Q20" s="66"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="65">
         <v>44277</v>
       </c>
-      <c r="T20" s="13"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="9" t="s">
+      <c r="T20" s="66"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="12"/>
     </row>
     <row r="21" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>15</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="M21" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="12">
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="65">
         <v>44277</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="12">
+      <c r="Q21" s="66"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="65">
         <v>44279</v>
       </c>
-      <c r="T21" s="13"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="9" t="s">
+      <c r="T21" s="66"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="12"/>
     </row>
     <row r="22" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>16</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="M22" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="12">
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="65">
         <v>44277</v>
       </c>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="12">
+      <c r="Q22" s="66"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="65">
         <v>44279</v>
       </c>
-      <c r="T22" s="13"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="9" t="s">
+      <c r="T22" s="66"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="12"/>
     </row>
     <row r="23" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>17</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
       <c r="K23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M23" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="12">
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="65">
         <v>44278</v>
       </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="12">
+      <c r="Q23" s="66"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="65">
         <v>44280</v>
       </c>
-      <c r="T23" s="13"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="11"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="12"/>
     </row>
     <row r="24" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>18</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
       <c r="K24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="M24" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="12">
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="65">
         <v>44274</v>
       </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="12">
+      <c r="Q24" s="66"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="65">
         <v>44275</v>
       </c>
-      <c r="T24" s="13"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="11"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="12"/>
     </row>
     <row r="25" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>19</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="M25" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="12">
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="65">
         <v>44278</v>
       </c>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="12">
+      <c r="Q25" s="66"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="65">
         <v>44281</v>
       </c>
-      <c r="T25" s="13"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="9" t="s">
+      <c r="T25" s="66"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="12"/>
     </row>
     <row r="26" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>20</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
       <c r="K26" s="4" t="s">
         <v>53</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M26" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="12">
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="65">
         <v>44281</v>
       </c>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="12">
+      <c r="Q26" s="66"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="65">
         <v>44281</v>
       </c>
-      <c r="T26" s="13"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="18"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="11"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="12"/>
     </row>
     <row r="27" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>21</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
       <c r="K27" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="12">
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="65">
         <v>44281</v>
       </c>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="12">
+      <c r="Q27" s="66"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="65">
         <v>44302</v>
       </c>
-      <c r="T27" s="13"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="11"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="12"/>
     </row>
     <row r="28" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>22</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="11"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="12"/>
     </row>
     <row r="29" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="11"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="12"/>
     </row>
     <row r="30" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2830,15 +2861,218 @@
     <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="AE1:AM1"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="AH4:AM6"/>
-    <mergeCell ref="AH7:AM7"/>
-    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="T2:Z2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P5:R6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="M4:O6"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AF4:AG6"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AB5:AC6"/>
+    <mergeCell ref="AD5:AE6"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="AF26:AG26"/>
     <mergeCell ref="AF27:AG27"/>
     <mergeCell ref="AF28:AG28"/>
@@ -2863,229 +3097,26 @@
     <mergeCell ref="AF24:AG24"/>
     <mergeCell ref="AF25:AG25"/>
     <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AE1:AM1"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="AH4:AM6"/>
+    <mergeCell ref="AH7:AM7"/>
+    <mergeCell ref="AH8:AM8"/>
     <mergeCell ref="AF18:AG18"/>
     <mergeCell ref="AF19:AG19"/>
     <mergeCell ref="AF20:AG20"/>
     <mergeCell ref="AD21:AE21"/>
     <mergeCell ref="AD22:AE22"/>
     <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AF4:AG6"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AB5:AC6"/>
-    <mergeCell ref="AD5:AE6"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="AD20:AE20"/>
     <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="T2:Z2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="P5:R6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="M4:O6"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
     <mergeCell ref="AH13:AM13"/>
     <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
     <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/進捗管理/WBS.xlsx
+++ b/進捗管理/WBS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F66E14-975F-4149-8CB6-66AAFEB80C3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7396B231-451A-41E2-95EA-E761CB73867A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="380" windowWidth="14300" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14300" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -566,6 +566,37 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「その他」の項目内容が外部インターフェースと様式項目で全くあっていないため、作成できない状態です</t>
+    <rPh sb="3" eb="4">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヨウシキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -852,6 +883,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,6 +900,150 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -876,170 +1060,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1328,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AP36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:O2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1357,100 +1388,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="51" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="47" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="44">
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="28">
         <v>44258</v>
       </c>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="47" t="s">
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="13" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="15"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="66"/>
     </row>
     <row r="2" spans="2:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="47" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="47" t="s">
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="15"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="66"/>
     </row>
     <row r="3" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
@@ -1476,1381 +1507,1384 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="39"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="42"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50" t="s">
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50" t="s">
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="35" t="s">
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="34" t="s">
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="16" t="s">
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="18"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="54"/>
     </row>
     <row r="5" spans="2:42" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="63"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50" t="s">
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50" t="s">
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50" t="s">
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50" t="s">
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="38" t="s">
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="38" t="s">
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="21"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="69"/>
+      <c r="AM5" s="56"/>
       <c r="AP5" s="1"/>
     </row>
     <row r="6" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="64"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="41"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="50"/>
-      <c r="Y6" s="50"/>
-      <c r="Z6" s="50"/>
-      <c r="AA6" s="50"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="24"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="70"/>
+      <c r="AJ6" s="70"/>
+      <c r="AK6" s="70"/>
+      <c r="AL6" s="70"/>
+      <c r="AM6" s="58"/>
     </row>
     <row r="7" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="68" t="s">
+      <c r="M7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="65">
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="16">
         <v>44258</v>
       </c>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="65">
+      <c r="Q7" s="17"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="16">
         <v>44260</v>
       </c>
-      <c r="T7" s="66"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="10" t="s">
+      <c r="T7" s="17"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="12"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="15"/>
     </row>
     <row r="8" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="68" t="s">
+      <c r="M8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="65">
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="16">
         <v>44258</v>
       </c>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="65">
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="16">
         <v>44260</v>
       </c>
-      <c r="T8" s="66"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="10" t="s">
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="60"/>
+      <c r="AH8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="11"/>
-      <c r="AL8" s="11"/>
-      <c r="AM8" s="12"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="15"/>
     </row>
     <row r="9" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="68" t="s">
+      <c r="M9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="65">
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="16">
         <v>44258</v>
       </c>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="65">
+      <c r="Q9" s="17"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="16">
         <v>44258</v>
       </c>
-      <c r="T9" s="66"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="65">
+      <c r="T9" s="17"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="16">
         <v>44258</v>
       </c>
-      <c r="W9" s="66"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="65">
+      <c r="W9" s="17"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="16">
         <v>44258</v>
       </c>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="28"/>
-      <c r="AF9" s="25">
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="59">
         <v>1</v>
       </c>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11"/>
-      <c r="AM9" s="12"/>
+      <c r="AG9" s="60"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="15"/>
     </row>
     <row r="10" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="68" t="s">
+      <c r="M10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="65">
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="16">
         <v>44258</v>
       </c>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="65">
+      <c r="Q10" s="17"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="16">
         <v>44260</v>
       </c>
-      <c r="T10" s="66"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="65">
+      <c r="T10" s="17"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="16">
         <v>44258</v>
       </c>
-      <c r="W10" s="66"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="65">
+      <c r="W10" s="17"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="16">
         <v>44258</v>
       </c>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="28"/>
-      <c r="AF10" s="25">
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="59">
         <v>0.9</v>
       </c>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="10" t="s">
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="12"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="68" t="s">
+      <c r="M11" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="65">
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="16">
         <v>44258</v>
       </c>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="65">
+      <c r="Q11" s="17"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="16">
         <v>44260</v>
       </c>
-      <c r="T11" s="66"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="11"/>
-      <c r="AL11" s="11"/>
-      <c r="AM11" s="12"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="60"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="15"/>
     </row>
     <row r="12" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="68" t="s">
+      <c r="M12" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="65">
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="16">
         <v>44258</v>
       </c>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="65">
+      <c r="Q12" s="17"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="16">
         <v>44260</v>
       </c>
-      <c r="T12" s="66"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="25"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="12"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="15"/>
     </row>
     <row r="13" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="68" t="s">
+      <c r="M13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="65">
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="16">
         <v>44271</v>
       </c>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="65">
+      <c r="Q13" s="17"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="16">
         <v>44271</v>
       </c>
-      <c r="T13" s="66"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="65">
+      <c r="T13" s="17"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="16">
         <v>44258</v>
       </c>
-      <c r="W13" s="66"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="65">
+      <c r="W13" s="17"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="16">
         <v>44258</v>
       </c>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="28"/>
-      <c r="AF13" s="25">
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="59">
         <v>1</v>
       </c>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="12"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="15"/>
     </row>
     <row r="14" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="68" t="s">
+      <c r="M14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="65">
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="16">
         <v>44271</v>
       </c>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="65">
+      <c r="Q14" s="17"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="16">
         <v>44271</v>
       </c>
-      <c r="T14" s="66"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="65">
+      <c r="T14" s="17"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="16">
         <v>44258</v>
       </c>
-      <c r="W14" s="66"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="65">
+      <c r="W14" s="17"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="16">
         <v>44258</v>
       </c>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="25">
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="59">
         <v>1</v>
       </c>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="12"/>
+      <c r="AG14" s="60"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="15"/>
     </row>
     <row r="15" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="68" t="s">
+      <c r="M15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="65">
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="16">
         <v>44271</v>
       </c>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="65">
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="16">
         <v>44271</v>
       </c>
-      <c r="T15" s="66"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="65">
+      <c r="T15" s="17"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="16">
         <v>44258</v>
       </c>
-      <c r="W15" s="66"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="65">
+      <c r="W15" s="17"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="16">
         <v>44258</v>
       </c>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="28"/>
-      <c r="AF15" s="25">
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="59">
         <v>1</v>
       </c>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="12"/>
+      <c r="AG15" s="60"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="15"/>
     </row>
     <row r="16" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="68" t="s">
+      <c r="M16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="65">
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="16">
         <v>44271</v>
       </c>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="65">
+      <c r="Q16" s="17"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="16">
         <v>44273</v>
       </c>
-      <c r="T16" s="66"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="67"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="67"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="12"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="60"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="15"/>
     </row>
     <row r="17" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="68" t="s">
+      <c r="M17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="65">
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="16">
         <v>44271</v>
       </c>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="65">
+      <c r="Q17" s="17"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="16">
         <v>44273</v>
       </c>
-      <c r="T17" s="66"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="65">
+      <c r="T17" s="17"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="16">
         <v>44258</v>
       </c>
-      <c r="W17" s="66"/>
-      <c r="X17" s="67"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="25">
+      <c r="W17" s="17"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="59">
         <v>0.3</v>
       </c>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="10" t="s">
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="12"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="15"/>
     </row>
     <row r="18" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9">
         <v>12</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
       <c r="K18" s="9" t="s">
         <v>37</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M18" s="72" t="s">
+      <c r="M18" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="69">
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="25">
         <v>44271</v>
       </c>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="69">
+      <c r="Q18" s="26"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="25">
         <v>44271</v>
       </c>
-      <c r="T18" s="70"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="30"/>
-      <c r="AM18" s="31"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="12"/>
     </row>
     <row r="19" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9">
         <v>13</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="72" t="s">
+      <c r="M19" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="69">
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="25">
         <v>44272</v>
       </c>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="69">
+      <c r="Q19" s="26"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="25">
         <v>44274</v>
       </c>
-      <c r="T19" s="70"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="43"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="29"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="31"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="12"/>
     </row>
     <row r="20" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="68" t="s">
+      <c r="M20" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="65">
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="16">
         <v>44277</v>
       </c>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="65">
+      <c r="Q20" s="17"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="16">
         <v>44277</v>
       </c>
-      <c r="T20" s="66"/>
-      <c r="U20" s="67"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="67"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="10" t="s">
+      <c r="T20" s="17"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="60"/>
+      <c r="AH20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="11"/>
-      <c r="AL20" s="11"/>
-      <c r="AM20" s="12"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="15"/>
     </row>
     <row r="21" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>15</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="68" t="s">
+      <c r="M21" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="65">
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="16">
         <v>44277</v>
       </c>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="65">
+      <c r="Q21" s="17"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="16">
         <v>44279</v>
       </c>
-      <c r="T21" s="66"/>
-      <c r="U21" s="67"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="67"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="10" t="s">
+      <c r="T21" s="17"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="60"/>
+      <c r="AH21" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="11"/>
-      <c r="AL21" s="11"/>
-      <c r="AM21" s="12"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="15"/>
     </row>
     <row r="22" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>16</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="68" t="s">
+      <c r="M22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="65">
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="16">
         <v>44277</v>
       </c>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="65">
+      <c r="Q22" s="17"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="16">
         <v>44279</v>
       </c>
-      <c r="T22" s="66"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="67"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="67"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="10" t="s">
+      <c r="T22" s="17"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="60"/>
+      <c r="AH22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="11"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="12"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="15"/>
     </row>
     <row r="23" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>17</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
       <c r="K23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="68" t="s">
+      <c r="M23" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="65">
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="16">
         <v>44278</v>
       </c>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="65">
+      <c r="Q23" s="17"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="16">
         <v>44280</v>
       </c>
-      <c r="T23" s="66"/>
-      <c r="U23" s="67"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="67"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="67"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="11"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="11"/>
-      <c r="AL23" s="11"/>
-      <c r="AM23" s="12"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="60"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="15"/>
     </row>
     <row r="24" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>18</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
       <c r="K24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="68" t="s">
+      <c r="M24" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="65">
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="16">
         <v>44274</v>
       </c>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="65">
+      <c r="Q24" s="17"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="16">
         <v>44275</v>
       </c>
-      <c r="T24" s="66"/>
-      <c r="U24" s="67"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="67"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="67"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="11"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="11"/>
-      <c r="AL24" s="11"/>
-      <c r="AM24" s="12"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="15"/>
     </row>
     <row r="25" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>19</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
       <c r="K25" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="68" t="s">
+      <c r="M25" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="65">
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="16">
         <v>44278</v>
       </c>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="65">
+      <c r="Q25" s="17"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="16">
         <v>44281</v>
       </c>
-      <c r="T25" s="66"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="67"/>
-      <c r="Y25" s="65"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="67"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="10" t="s">
+      <c r="T25" s="17"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="11"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="12"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="15"/>
     </row>
     <row r="26" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>20</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
       <c r="K26" s="4" t="s">
         <v>53</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M26" s="68" t="s">
+      <c r="M26" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="65">
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="16">
         <v>44281</v>
       </c>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="65">
+      <c r="Q26" s="17"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="16">
         <v>44281</v>
       </c>
-      <c r="T26" s="66"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="67"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="67"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="28"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="11"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="11"/>
-      <c r="AL26" s="11"/>
-      <c r="AM26" s="12"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="15"/>
     </row>
     <row r="27" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>21</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="65">
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="16">
         <v>44281</v>
       </c>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="65">
+      <c r="Q27" s="17"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="16">
         <v>44302</v>
       </c>
-      <c r="T27" s="66"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="65"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="26"/>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="11"/>
-      <c r="AL27" s="11"/>
-      <c r="AM27" s="12"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="60"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="15"/>
     </row>
     <row r="28" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>22</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="67"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="11"/>
-      <c r="AJ28" s="11"/>
-      <c r="AK28" s="11"/>
-      <c r="AL28" s="11"/>
-      <c r="AM28" s="12"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="15"/>
     </row>
     <row r="29" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="67"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="26"/>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="11"/>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="11"/>
-      <c r="AL29" s="11"/>
-      <c r="AM29" s="12"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="59"/>
+      <c r="AG29" s="60"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
+      <c r="AK29" s="14"/>
+      <c r="AL29" s="14"/>
+      <c r="AM29" s="15"/>
     </row>
     <row r="30" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2861,67 +2895,177 @@
     <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AE1:AM1"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="AH4:AM6"/>
+    <mergeCell ref="AH7:AM7"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AD23:AE23"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AH25:AM25"/>
+    <mergeCell ref="AH26:AM26"/>
+    <mergeCell ref="AH27:AM27"/>
+    <mergeCell ref="AH28:AM28"/>
+    <mergeCell ref="AH29:AM29"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="AH17:AM17"/>
+    <mergeCell ref="AH18:AM18"/>
+    <mergeCell ref="AH19:AM19"/>
+    <mergeCell ref="AF22:AG22"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AF4:AG6"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AB5:AC6"/>
+    <mergeCell ref="AD5:AE6"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="T2:Z2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P5:R6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="M4:O6"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
     <mergeCell ref="AB19:AC19"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="P18:R18"/>
@@ -2946,177 +3090,67 @@
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="P19:R19"/>
     <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="T2:Z2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="P5:R6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="M4:O6"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AF4:AG6"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AB5:AC6"/>
-    <mergeCell ref="AD5:AE6"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AH24:AM24"/>
-    <mergeCell ref="AH25:AM25"/>
-    <mergeCell ref="AH26:AM26"/>
-    <mergeCell ref="AH27:AM27"/>
-    <mergeCell ref="AH28:AM28"/>
-    <mergeCell ref="AH29:AM29"/>
-    <mergeCell ref="AH15:AM15"/>
-    <mergeCell ref="AH16:AM16"/>
-    <mergeCell ref="AH17:AM17"/>
-    <mergeCell ref="AH18:AM18"/>
-    <mergeCell ref="AH19:AM19"/>
-    <mergeCell ref="AF22:AG22"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AF17:AG17"/>
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="AE1:AM1"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="AH4:AM6"/>
-    <mergeCell ref="AH7:AM7"/>
-    <mergeCell ref="AH8:AM8"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AH13:AM13"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="AF16:AG16"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/進捗管理/WBS.xlsx
+++ b/進捗管理/WBS.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205596ED-50F2-482E-874C-E8820884CD74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2FE36F-2318-425A-98DD-199DF66CE3E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33810" yWindow="1125" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="4" r:id="rId1"/>
@@ -560,7 +560,7 @@
     <numFmt numFmtId="179" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="180" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -591,6 +591,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="メイリオ"/>
       <family val="3"/>
@@ -800,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,6 +835,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,23 +847,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -861,6 +889,57 @@
     <xf numFmtId="180" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -900,18 +979,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,89 +1003,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,17 +1324,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AP36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7:X7"/>
+      <selection activeCell="P12" sqref="P12:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.26953125" style="1"/>
-    <col min="2" max="2" width="6" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="2.08984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="3.26953125" style="1"/>
     <col min="6" max="6" width="1.90625" style="1" customWidth="1"/>
@@ -1336,100 +1356,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="23" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="20">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="44">
         <v>44258</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="23" t="s">
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="54" t="s">
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="56"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="15"/>
     </row>
     <row r="2" spans="2:42" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="23" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="23" t="s">
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="56"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="15"/>
     </row>
     <row r="3" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
@@ -1455,1371 +1475,1371 @@
       </c>
     </row>
     <row r="4" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="34"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26" t="s">
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26" t="s">
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="51" t="s">
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="45" t="s">
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="57" t="s">
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AI4" s="58"/>
-      <c r="AJ4" s="58"/>
-      <c r="AK4" s="58"/>
-      <c r="AL4" s="58"/>
-      <c r="AM4" s="46"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="18"/>
     </row>
     <row r="5" spans="2:42" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="43"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26" t="s">
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26" t="s">
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26" t="s">
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="33" t="s">
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="33" t="s">
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="48"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="21"/>
       <c r="AP5" s="1"/>
     </row>
     <row r="6" spans="2:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="36"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="50"/>
-      <c r="AH6" s="49"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="50"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="23"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="23"/>
+      <c r="AL6" s="23"/>
+      <c r="AM6" s="24"/>
     </row>
     <row r="7" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="12">
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="65">
         <v>44258</v>
       </c>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="12">
+      <c r="Q7" s="66"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="65">
         <v>44260</v>
       </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="9" t="s">
+      <c r="T7" s="66"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="12"/>
     </row>
     <row r="8" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="12">
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="65">
         <v>44258</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="12">
+      <c r="Q8" s="66"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="65">
         <v>44260</v>
       </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="9" t="s">
+      <c r="T8" s="66"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="65"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="12"/>
     </row>
     <row r="9" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="12">
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="65">
         <v>44258</v>
       </c>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="12">
+      <c r="Q9" s="66"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="65">
         <v>44258</v>
       </c>
-      <c r="T9" s="13"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="18">
+      <c r="T9" s="66"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="25">
         <v>1</v>
       </c>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="11"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="12"/>
     </row>
     <row r="10" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
       <c r="K10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="12">
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="65">
         <v>44258</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="12">
+      <c r="Q10" s="66"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="65">
         <v>44260</v>
       </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="18"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="9" t="s">
+      <c r="T10" s="66"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="12"/>
     </row>
     <row r="11" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="12">
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="65">
         <v>44258</v>
       </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="12">
+      <c r="Q11" s="66"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="65">
         <v>44260</v>
       </c>
-      <c r="T11" s="13"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="18"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="11"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="12"/>
     </row>
     <row r="12" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
       <c r="K12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="12">
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="65">
         <v>44258</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="12">
+      <c r="Q12" s="66"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="65">
         <v>44260</v>
       </c>
-      <c r="T12" s="13"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="15"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="19"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="11"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="12"/>
     </row>
     <row r="13" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
       <c r="K13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="12">
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="65">
         <v>44271</v>
       </c>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="12">
+      <c r="Q13" s="66"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="65">
         <v>44271</v>
       </c>
-      <c r="T13" s="13"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="12">
+      <c r="T13" s="66"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="65">
         <v>44258</v>
       </c>
-      <c r="W13" s="13"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="12">
+      <c r="W13" s="66"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="65">
         <v>44258</v>
       </c>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="18">
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="25">
         <v>1</v>
       </c>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="11"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="12"/>
     </row>
     <row r="14" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="12">
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="65">
         <v>44271</v>
       </c>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="12">
+      <c r="Q14" s="66"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="65">
         <v>44271</v>
       </c>
-      <c r="T14" s="13"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="12">
+      <c r="T14" s="66"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="65">
         <v>44258</v>
       </c>
-      <c r="W14" s="13"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="12">
+      <c r="W14" s="66"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="65">
         <v>44258</v>
       </c>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="18">
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="67"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="25">
         <v>1</v>
       </c>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="11"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="12"/>
     </row>
     <row r="15" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="12">
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="65">
         <v>44271</v>
       </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="12">
+      <c r="Q15" s="66"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="65">
         <v>44271</v>
       </c>
-      <c r="T15" s="13"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="12">
+      <c r="T15" s="66"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="65">
         <v>44258</v>
       </c>
-      <c r="W15" s="13"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="12">
+      <c r="W15" s="66"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="65">
         <v>44258</v>
       </c>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="18">
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="67"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="25">
         <v>1</v>
       </c>
-      <c r="AG15" s="19"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="11"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="12"/>
     </row>
     <row r="16" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="17" t="s">
+      <c r="M16" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="12">
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="65">
         <v>44271</v>
       </c>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="12">
+      <c r="Q16" s="66"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="65">
         <v>44273</v>
       </c>
-      <c r="T16" s="13"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="11"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="67"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="12"/>
     </row>
     <row r="17" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="17" t="s">
+      <c r="M17" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="12">
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="65">
         <v>44271</v>
       </c>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="12">
+      <c r="Q17" s="66"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="65">
         <v>44273</v>
       </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="12">
+      <c r="T17" s="66"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="65">
         <v>44258</v>
       </c>
-      <c r="W17" s="13"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="18">
+      <c r="W17" s="66"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="67"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="25">
         <v>0.3</v>
       </c>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="9" t="s">
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="12"/>
     </row>
     <row r="18" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="61">
+      <c r="B18" s="9">
         <v>12</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="61" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="61" t="s">
+      <c r="L18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M18" s="65" t="s">
+      <c r="M18" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="66">
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="69">
         <v>44271</v>
       </c>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="66">
+      <c r="Q18" s="70"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="69">
         <v>44271</v>
       </c>
-      <c r="T18" s="67"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="70"/>
-      <c r="AD18" s="69"/>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="63"/>
-      <c r="AJ18" s="63"/>
-      <c r="AK18" s="63"/>
-      <c r="AL18" s="63"/>
-      <c r="AM18" s="64"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="30"/>
+      <c r="AM18" s="31"/>
     </row>
     <row r="19" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="61">
+      <c r="B19" s="9">
         <v>13</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="65" t="s">
+      <c r="M19" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="66">
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="69">
         <v>44272</v>
       </c>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="66">
+      <c r="Q19" s="70"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="69">
         <v>44274</v>
       </c>
-      <c r="T19" s="67"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="67"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="70"/>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="63"/>
-      <c r="AJ19" s="63"/>
-      <c r="AK19" s="63"/>
-      <c r="AL19" s="63"/>
-      <c r="AM19" s="64"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="43"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="30"/>
+      <c r="AM19" s="31"/>
     </row>
     <row r="20" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="M20" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="12">
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="65">
         <v>44277</v>
       </c>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="12">
+      <c r="Q20" s="66"/>
+      <c r="R20" s="67"/>
+      <c r="S20" s="65">
         <v>44277</v>
       </c>
-      <c r="T20" s="13"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="19"/>
-      <c r="AH20" s="9" t="s">
+      <c r="T20" s="66"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="67"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="12"/>
     </row>
     <row r="21" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>15</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="17" t="s">
+      <c r="M21" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="12">
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="65">
         <v>44277</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="12">
+      <c r="Q21" s="66"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="65">
         <v>44279</v>
       </c>
-      <c r="T21" s="13"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="15"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="15"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="18"/>
-      <c r="AG21" s="19"/>
-      <c r="AH21" s="9" t="s">
+      <c r="T21" s="66"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="67"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="12"/>
     </row>
     <row r="22" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>16</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="M22" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="12">
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="65">
         <v>44277</v>
       </c>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="12">
+      <c r="Q22" s="66"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="65">
         <v>44279</v>
       </c>
-      <c r="T22" s="13"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="18"/>
-      <c r="AG22" s="19"/>
-      <c r="AH22" s="9" t="s">
+      <c r="T22" s="66"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="67"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="12"/>
     </row>
     <row r="23" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>17</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
       <c r="K23" s="4" t="s">
         <v>46</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M23" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="12">
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="65">
         <v>44278</v>
       </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="12">
+      <c r="Q23" s="66"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="65">
         <v>44280</v>
       </c>
-      <c r="T23" s="13"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="15"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="15"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="18"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="11"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="12"/>
     </row>
     <row r="24" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>18</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
       <c r="K24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="M24" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="12">
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="65">
         <v>44274</v>
       </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="12">
+      <c r="Q24" s="66"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="65">
         <v>44275</v>
       </c>
-      <c r="T24" s="13"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="18"/>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="11"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="12"/>
     </row>
     <row r="25" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>19</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="4" t="s">
         <v>50</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="17" t="s">
+      <c r="M25" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="12">
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="65">
         <v>44278</v>
       </c>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="12">
+      <c r="Q25" s="66"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="65">
         <v>44281</v>
       </c>
-      <c r="T25" s="13"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="9" t="s">
+      <c r="T25" s="66"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="12"/>
     </row>
     <row r="26" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>20</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
       <c r="K26" s="4" t="s">
         <v>53</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M26" s="17" t="s">
+      <c r="M26" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="12">
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="65">
         <v>44281</v>
       </c>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="12">
+      <c r="Q26" s="66"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="65">
         <v>44281</v>
       </c>
-      <c r="T26" s="13"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="18"/>
-      <c r="AG26" s="19"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="11"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="12"/>
     </row>
     <row r="27" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>21</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
       <c r="K27" s="8" t="s">
         <v>56</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="12">
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="65">
         <v>44281</v>
       </c>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="12">
+      <c r="Q27" s="66"/>
+      <c r="R27" s="67"/>
+      <c r="S27" s="65">
         <v>44302</v>
       </c>
-      <c r="T27" s="13"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="19"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="11"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="67"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="12"/>
     </row>
     <row r="28" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>22</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="11"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="67"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="12"/>
     </row>
     <row r="29" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="11"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="12"/>
     </row>
     <row r="30" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2830,15 +2850,218 @@
     <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="AE1:AM1"/>
-    <mergeCell ref="AE2:AM2"/>
-    <mergeCell ref="AH4:AM6"/>
-    <mergeCell ref="AH7:AM7"/>
-    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="T2:Z2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P5:R6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="M4:O6"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="C4:I6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AD28:AE28"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="AF4:AG6"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AF10:AG10"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AF13:AG13"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AF15:AG15"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AB5:AC6"/>
+    <mergeCell ref="AD5:AE6"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="AF26:AG26"/>
     <mergeCell ref="AF27:AG27"/>
     <mergeCell ref="AF28:AG28"/>
@@ -2863,229 +3086,26 @@
     <mergeCell ref="AF24:AG24"/>
     <mergeCell ref="AF25:AG25"/>
     <mergeCell ref="AF17:AG17"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AE1:AM1"/>
+    <mergeCell ref="AE2:AM2"/>
+    <mergeCell ref="AH4:AM6"/>
+    <mergeCell ref="AH7:AM7"/>
+    <mergeCell ref="AH8:AM8"/>
     <mergeCell ref="AF18:AG18"/>
     <mergeCell ref="AF19:AG19"/>
     <mergeCell ref="AF20:AG20"/>
     <mergeCell ref="AD21:AE21"/>
     <mergeCell ref="AD22:AE22"/>
     <mergeCell ref="AD23:AE23"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="AF4:AG6"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AF10:AG10"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AF13:AG13"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AF15:AG15"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AB5:AC6"/>
-    <mergeCell ref="AD5:AE6"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AB20:AC20"/>
     <mergeCell ref="AD20:AE20"/>
     <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="T2:Z2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="P5:R6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="M4:O6"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="C4:I6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
     <mergeCell ref="AH13:AM13"/>
     <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
     <mergeCell ref="AF16:AG16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
